--- a/downloaded_files/STRS452_Lecture-35134.xlsx
+++ b/downloaded_files/STRS452_Lecture-35134.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Sohaila Yaser Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن حازم محمد فهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman hazem mohamed fahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210078</x:t>
@@ -200,7 +209,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -500,7 +509,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T7"/>
+  <x:dimension ref="A1:T8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -510,7 +519,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="33.770625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -687,7 +696,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6790697917</x:v>
+        <x:v>45927.4502623032</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -719,7 +728,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45906.6790697917</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -751,7 +760,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6704194444</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -768,6 +777,38 @@
       <x:c r="R7" s="2" t="s"/>
       <x:c r="S7" s="2" t="s"/>
       <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45906.6704194444</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
